--- a/biology/Botanique/Hagenia_abyssinica/Hagenia_abyssinica.xlsx
+++ b/biology/Botanique/Hagenia_abyssinica/Hagenia_abyssinica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hagenia abyssinica est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbre pouvant dépasser 20 m de haut. C'est la seule espèce actuellement décrite du genre Hagenia. Elle est aussi connue sous le nom de "kousso" ou "cousso"[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hagenia abyssinica est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbre pouvant dépasser 20 m de haut. C'est la seule espèce actuellement décrite du genre Hagenia. Elle est aussi connue sous le nom de "kousso" ou "cousso".
 Cette espèce toxique est originaire d'Afrique : Érythrée, Éthiopie, Soudan, Kenya, Tanzanie, Ouganda, Burundi, République centrafricaine, Rwanda, République démocratique du Congo, Malawi et Zambie.
 On extrait de ses fleurs femelles (cet arbre est dioïque) la cosine ou coussine, qui est un vermifuge, ainsi que la cosotoxine et la protocosine.
 </t>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brayera anthelmintica Kunth (1824)
 Banksia abyssinica Bruce</t>
